--- a/TC1/dataEngine/DataEngine.xlsx
+++ b/TC1/dataEngine/DataEngine.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="NewOrder_Page">Settings!$F$2:$F$34</definedName>
     <definedName name="Ordering_Page">Settings!$D$2:$D$34</definedName>
     <definedName name="Page_Name">Settings!$A$2:$A$16</definedName>
+    <definedName name="SO_Page">Settings!$D:$D</definedName>
     <definedName name="Summary_Page">Settings!$G$2:$G$31</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="104">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -147,18 +148,6 @@
     <t>ordering</t>
   </si>
   <si>
-    <t>Ordering_Page Objects</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>returnOrder</t>
-  </si>
-  <si>
-    <t>goodsReceiving</t>
-  </si>
-  <si>
     <t>List_Page</t>
   </si>
   <si>
@@ -171,9 +160,6 @@
     <t>Summary_Page</t>
   </si>
   <si>
-    <t>Dashboard_Page Objects</t>
-  </si>
-  <si>
     <t>Dashboard_Page</t>
   </si>
   <si>
@@ -183,9 +169,6 @@
     <t>Order_01</t>
   </si>
   <si>
-    <t>Make Order Non_Delivery</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -198,9 +181,6 @@
     <t>Lẩu Tôm</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>inputItems</t>
   </si>
   <si>
@@ -294,15 +274,6 @@
     <t>TS_024</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>distributor03</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>admin@tcc1.com</t>
   </si>
   <si>
@@ -310,6 +281,66 @@
   </si>
   <si>
     <t>Login in to SmartTurn</t>
+  </si>
+  <si>
+    <t>Add a SO</t>
+  </si>
+  <si>
+    <t>AddSO_01</t>
+  </si>
+  <si>
+    <t>Home_Page Objects</t>
+  </si>
+  <si>
+    <t>SaleOrder</t>
+  </si>
+  <si>
+    <t>addSO</t>
+  </si>
+  <si>
+    <t>itemNumber</t>
+  </si>
+  <si>
+    <t>btnSearch</t>
+  </si>
+  <si>
+    <t>chkItem</t>
+  </si>
+  <si>
+    <t>btnSave</t>
+  </si>
+  <si>
+    <t>txtOrderQty</t>
+  </si>
+  <si>
+    <t>drpUOM</t>
+  </si>
+  <si>
+    <t>txtOverridePrice</t>
+  </si>
+  <si>
+    <t>SO_Page Objects</t>
+  </si>
+  <si>
+    <t>DFJ 825-002</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>addSOItem</t>
+  </si>
+  <si>
+    <t>TS_025</t>
+  </si>
+  <si>
+    <t>TS_026</t>
+  </si>
+  <si>
+    <t>TS_027</t>
   </si>
 </sst>
 </file>
@@ -446,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,7 +512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,10 +752,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -732,16 +763,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -751,10 +782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
         <v>36</v>
@@ -875,7 +906,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
         <v>36</v>
@@ -931,10 +962,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
@@ -951,10 +982,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>35</v>
@@ -968,10 +999,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -982,8 +1013,8 @@
       <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
-        <v>89</v>
+      <c r="G11" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="H11" t="s">
         <v>36</v>
@@ -991,10 +1022,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1006,7 +1037,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -1014,10 +1045,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1034,10 +1065,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -1048,13 +1079,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>38</v>
@@ -1068,16 +1099,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -1088,16 +1119,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1108,13 +1139,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -1122,16 +1159,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -1139,13 +1173,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -1153,16 +1196,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -1173,16 +1216,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -1193,13 +1236,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -1207,22 +1256,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -1230,22 +1270,64 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
         <v>18</v>
       </c>
-      <c r="H25" t="s">
-        <v>36</v>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1262,6 +1344,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1293,19 +1376,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1319,35 +1402,35 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1358,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,22 +1460,22 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -1409,16 +1492,16 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -1426,22 +1509,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -1455,10 +1538,10 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -1466,7 +1549,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -1474,7 +1560,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -1482,7 +1571,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
@@ -1490,15 +1582,31 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
       </c>
       <c r="H8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/TC1/dataEngine/DataEngine.xlsx
+++ b/TC1/dataEngine/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -46,301 +46,301 @@
     <t>Login_01</t>
   </si>
   <si>
+    <t>TS_ID</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>Page Object</t>
+  </si>
+  <si>
+    <t>Action Keyword</t>
+  </si>
+  <si>
+    <t>Data Set</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Login_Page Objects</t>
+  </si>
+  <si>
+    <t>Action Keywords</t>
+  </si>
+  <si>
+    <t>Login_Page</t>
+  </si>
+  <si>
+    <t>openBrowser</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>waitFor</t>
+  </si>
+  <si>
+    <t>txtUserName</t>
+  </si>
+  <si>
+    <t>txtPassword</t>
+  </si>
+  <si>
+    <t>btnLogin</t>
+  </si>
+  <si>
+    <t>dis5</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>TS_001</t>
+  </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>TS_003</t>
+  </si>
+  <si>
+    <t>TS_004</t>
+  </si>
+  <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>TS_007</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>ordering</t>
+  </si>
+  <si>
+    <t>List_Page</t>
+  </si>
+  <si>
+    <t>NewOrder_Page</t>
+  </si>
+  <si>
+    <t>orderType</t>
+  </si>
+  <si>
+    <t>Summary_Page</t>
+  </si>
+  <si>
+    <t>Dashboard_Page</t>
+  </si>
+  <si>
+    <t>Ordering_Page</t>
+  </si>
+  <si>
+    <t>Order_01</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UoM</t>
+  </si>
+  <si>
+    <t>thùng</t>
+  </si>
+  <si>
+    <t>Lẩu Tôm</t>
+  </si>
+  <si>
+    <t>inputItems</t>
+  </si>
+  <si>
+    <t>addNew</t>
+  </si>
+  <si>
+    <t>TS_008</t>
+  </si>
+  <si>
+    <t>TS_009</t>
+  </si>
+  <si>
+    <t>TS_010</t>
+  </si>
+  <si>
+    <t>TS_011</t>
+  </si>
+  <si>
+    <t>TS_012</t>
+  </si>
+  <si>
+    <t>TS_013</t>
+  </si>
+  <si>
+    <t>TS_014</t>
+  </si>
+  <si>
+    <t>TS_015</t>
+  </si>
+  <si>
+    <t>TS_016</t>
+  </si>
+  <si>
+    <t>TS_017</t>
+  </si>
+  <si>
+    <t>TS_018</t>
+  </si>
+  <si>
+    <t>TS_019</t>
+  </si>
+  <si>
+    <t>Sườn Hầm Ngũ Quả</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>TS_020</t>
+  </si>
+  <si>
+    <t>TS_021</t>
+  </si>
+  <si>
+    <t>btnConfirm</t>
+  </si>
+  <si>
+    <t>btnSend</t>
+  </si>
+  <si>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>Mozilla</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Gói</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>btnLogOut</t>
+  </si>
+  <si>
+    <t>TS_022</t>
+  </si>
+  <si>
+    <t>TS_023</t>
+  </si>
+  <si>
+    <t>searchByStatus</t>
+  </si>
+  <si>
+    <t>btnDetails</t>
+  </si>
+  <si>
+    <t>TS_024</t>
+  </si>
+  <si>
+    <t>admin@tcc1.com</t>
+  </si>
+  <si>
+    <t>Test.123</t>
+  </si>
+  <si>
+    <t>Login in to SmartTurn</t>
+  </si>
+  <si>
+    <t>Add a SO</t>
+  </si>
+  <si>
+    <t>AddSO_01</t>
+  </si>
+  <si>
+    <t>Home_Page Objects</t>
+  </si>
+  <si>
+    <t>SaleOrder</t>
+  </si>
+  <si>
+    <t>addSO</t>
+  </si>
+  <si>
+    <t>itemNumber</t>
+  </si>
+  <si>
+    <t>btnSearch</t>
+  </si>
+  <si>
+    <t>chkItem</t>
+  </si>
+  <si>
+    <t>btnSave</t>
+  </si>
+  <si>
+    <t>txtOrderQty</t>
+  </si>
+  <si>
+    <t>drpUOM</t>
+  </si>
+  <si>
+    <t>txtOverridePrice</t>
+  </si>
+  <si>
+    <t>SO_Page Objects</t>
+  </si>
+  <si>
+    <t>DFJ 825-002</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>addSOItem</t>
+  </si>
+  <si>
+    <t>TS_025</t>
+  </si>
+  <si>
+    <t>TS_026</t>
+  </si>
+  <si>
+    <t>TS_027</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>TS_ID</t>
-  </si>
-  <si>
-    <t>Page Name</t>
-  </si>
-  <si>
-    <t>Page Object</t>
-  </si>
-  <si>
-    <t>Action Keyword</t>
-  </si>
-  <si>
-    <t>Data Set</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>Login_Page Objects</t>
-  </si>
-  <si>
-    <t>Action Keywords</t>
-  </si>
-  <si>
-    <t>Login_Page</t>
-  </si>
-  <si>
-    <t>openBrowser</t>
-  </si>
-  <si>
-    <t>navigate</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>closeBrowser</t>
-  </si>
-  <si>
-    <t>waitFor</t>
-  </si>
-  <si>
-    <t>txtUserName</t>
-  </si>
-  <si>
-    <t>txtPassword</t>
-  </si>
-  <si>
-    <t>btnLogin</t>
-  </si>
-  <si>
-    <t>dis5</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>TS_001</t>
-  </si>
-  <si>
-    <t>TS_002</t>
-  </si>
-  <si>
-    <t>TS_003</t>
-  </si>
-  <si>
-    <t>TS_004</t>
-  </si>
-  <si>
-    <t>TS_005</t>
-  </si>
-  <si>
-    <t>TS_006</t>
-  </si>
-  <si>
-    <t>TS_007</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>ordering</t>
-  </si>
-  <si>
-    <t>List_Page</t>
-  </si>
-  <si>
-    <t>NewOrder_Page</t>
-  </si>
-  <si>
-    <t>orderType</t>
-  </si>
-  <si>
-    <t>Summary_Page</t>
-  </si>
-  <si>
-    <t>Dashboard_Page</t>
-  </si>
-  <si>
-    <t>Ordering_Page</t>
-  </si>
-  <si>
-    <t>Order_01</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>UoM</t>
-  </si>
-  <si>
-    <t>thùng</t>
-  </si>
-  <si>
-    <t>Lẩu Tôm</t>
-  </si>
-  <si>
-    <t>inputItems</t>
-  </si>
-  <si>
-    <t>addNew</t>
-  </si>
-  <si>
-    <t>TS_008</t>
-  </si>
-  <si>
-    <t>TS_009</t>
-  </si>
-  <si>
-    <t>TS_010</t>
-  </si>
-  <si>
-    <t>TS_011</t>
-  </si>
-  <si>
-    <t>TS_012</t>
-  </si>
-  <si>
-    <t>TS_013</t>
-  </si>
-  <si>
-    <t>TS_014</t>
-  </si>
-  <si>
-    <t>TS_015</t>
-  </si>
-  <si>
-    <t>TS_016</t>
-  </si>
-  <si>
-    <t>TS_017</t>
-  </si>
-  <si>
-    <t>TS_018</t>
-  </si>
-  <si>
-    <t>TS_019</t>
-  </si>
-  <si>
-    <t>Sườn Hầm Ngũ Quả</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>TS_020</t>
-  </si>
-  <si>
-    <t>TS_021</t>
-  </si>
-  <si>
-    <t>btnConfirm</t>
-  </si>
-  <si>
-    <t>btnSend</t>
-  </si>
-  <si>
-    <t>PassWord</t>
-  </si>
-  <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Gói</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>btnLogOut</t>
-  </si>
-  <si>
-    <t>TS_022</t>
-  </si>
-  <si>
-    <t>TS_023</t>
-  </si>
-  <si>
-    <t>searchByStatus</t>
-  </si>
-  <si>
-    <t>btnDetails</t>
-  </si>
-  <si>
-    <t>TS_024</t>
-  </si>
-  <si>
-    <t>admin@tcc1.com</t>
-  </si>
-  <si>
-    <t>Test.123</t>
-  </si>
-  <si>
-    <t>Login in to SmartTurn</t>
-  </si>
-  <si>
-    <t>Add a SO</t>
-  </si>
-  <si>
-    <t>AddSO_01</t>
-  </si>
-  <si>
-    <t>Home_Page Objects</t>
-  </si>
-  <si>
-    <t>SaleOrder</t>
-  </si>
-  <si>
-    <t>addSO</t>
-  </si>
-  <si>
-    <t>itemNumber</t>
-  </si>
-  <si>
-    <t>btnSearch</t>
-  </si>
-  <si>
-    <t>chkItem</t>
-  </si>
-  <si>
-    <t>btnSave</t>
-  </si>
-  <si>
-    <t>txtOrderQty</t>
-  </si>
-  <si>
-    <t>drpUOM</t>
-  </si>
-  <si>
-    <t>txtOverridePrice</t>
-  </si>
-  <si>
-    <t>SO_Page Objects</t>
-  </si>
-  <si>
-    <t>DFJ 825-002</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>addSOItem</t>
-  </si>
-  <si>
-    <t>TS_025</t>
-  </si>
-  <si>
-    <t>TS_026</t>
-  </si>
-  <si>
-    <t>TS_027</t>
   </si>
 </sst>
 </file>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,27 +752,27 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,22 +805,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -831,19 +831,19 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -851,19 +851,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -871,22 +871,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,22 +894,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -917,19 +917,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,13 +937,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -951,383 +951,383 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1396,41 +1396,41 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1457,156 +1457,156 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/TC1/dataEngine/DataEngine.xlsx
+++ b/TC1/dataEngine/DataEngine.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,7 +512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +755,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -769,7 +769,7 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
         <v>98</v>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TC1/dataEngine/DataEngine.xlsx
+++ b/TC1/dataEngine/DataEngine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="103">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -322,25 +322,22 @@
     <t>DFJ 825-002</t>
   </si>
   <si>
-    <t>no</t>
+    <t>addSOItem</t>
+  </si>
+  <si>
+    <t>TS_025</t>
+  </si>
+  <si>
+    <t>TS_026</t>
+  </si>
+  <si>
+    <t>TS_027</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>addSOItem</t>
-  </si>
-  <si>
-    <t>TS_025</t>
-  </si>
-  <si>
-    <t>TS_026</t>
-  </si>
-  <si>
-    <t>TS_027</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -477,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,7 +509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,7 +721,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +752,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -769,10 +766,10 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -784,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1188,7 @@
         <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1210,9 +1207,6 @@
       <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1230,9 +1224,6 @@
       <c r="F22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1250,9 +1241,6 @@
       <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1264,9 +1252,6 @@
       <c r="F24" t="s">
         <v>20</v>
       </c>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1287,16 +1272,13 @@
       <c r="G25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H25" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
@@ -1313,7 +1295,7 @@
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
@@ -1324,7 +1306,7 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
@@ -1606,7 +1588,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/TC1/dataEngine/DataEngine.xlsx
+++ b/TC1/dataEngine/DataEngine.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="103">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -337,7 +337,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -769,7 +769,7 @@
         <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +782,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1188,7 @@
         <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1207,6 +1207,9 @@
       <c r="F21" t="s">
         <v>17</v>
       </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1224,6 +1227,9 @@
       <c r="F22" t="s">
         <v>17</v>
       </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1241,6 +1247,9 @@
       <c r="F23" t="s">
         <v>17</v>
       </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1252,6 +1261,9 @@
       <c r="F24" t="s">
         <v>20</v>
       </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1272,6 +1284,9 @@
       <c r="G25" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1289,6 +1304,9 @@
       <c r="F26" t="s">
         <v>17</v>
       </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1300,6 +1318,9 @@
       <c r="F27" t="s">
         <v>20</v>
       </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1310,6 +1331,9 @@
       </c>
       <c r="F28" t="s">
         <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/TC1/dataEngine/DataEngine.xlsx
+++ b/TC1/dataEngine/DataEngine.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="103">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -331,13 +331,13 @@
     <t>TS_026</t>
   </si>
   <si>
-    <t>TS_027</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -766,10 +766,10 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -779,10 +779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,14 +1141,8 @@
       <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
@@ -1161,11 +1155,20 @@
       <c r="B19" t="s">
         <v>61</v>
       </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1179,13 +1182,10 @@
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
         <v>35</v>
@@ -1202,7 +1202,7 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -1222,7 +1222,7 @@
         <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -1238,14 +1238,8 @@
       <c r="B23" t="s">
         <v>75</v>
       </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" t="s">
-        <v>91</v>
-      </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
         <v>35</v>
@@ -1258,8 +1252,17 @@
       <c r="B24" t="s">
         <v>76</v>
       </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -1276,13 +1279,10 @@
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
         <v>35</v>
@@ -1295,14 +1295,8 @@
       <c r="B26" t="s">
         <v>98</v>
       </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
         <v>35</v>
@@ -1316,23 +1310,9 @@
         <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
         <v>35</v>
       </c>
     </row>

--- a/TC1/dataEngine/DataEngine.xlsx
+++ b/TC1/dataEngine/DataEngine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="103">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -334,10 +334,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,7 +509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -721,7 +721,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -769,7 +769,7 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,9 +973,6 @@
       <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -990,9 +987,6 @@
       <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1013,9 +1007,6 @@
       <c r="G11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1036,9 +1027,6 @@
       <c r="G12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1056,9 +1044,6 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1070,9 +1055,6 @@
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1090,9 +1072,6 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="H15" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1110,11 +1089,8 @@
       <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -1130,11 +1106,8 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -1144,11 +1117,8 @@
       <c r="F18" t="s">
         <v>20</v>
       </c>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -1167,11 +1137,8 @@
       <c r="G19" t="s">
         <v>96</v>
       </c>
-      <c r="H19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1187,11 +1154,8 @@
       <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1207,11 +1171,8 @@
       <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -1227,11 +1188,8 @@
       <c r="F22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -1241,11 +1199,8 @@
       <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1264,11 +1219,8 @@
       <c r="G24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1284,11 +1236,8 @@
       <c r="F25" t="s">
         <v>17</v>
       </c>
-      <c r="H25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -1298,11 +1247,8 @@
       <c r="F26" t="s">
         <v>20</v>
       </c>
-      <c r="H26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -1311,9 +1257,6 @@
       </c>
       <c r="F27" t="s">
         <v>19</v>
-      </c>
-      <c r="H27" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/TC1/dataEngine/DataEngine.xlsx
+++ b/TC1/dataEngine/DataEngine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="104">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -334,10 +334,13 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>autotest@no-spam.ws</t>
+  </si>
+  <si>
+    <t>TS_027</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,7 +512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -752,7 +755,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -769,7 +772,7 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -779,10 +782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,6 +976,9 @@
       <c r="G9" t="s">
         <v>26</v>
       </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -987,6 +993,9 @@
       <c r="F10" t="s">
         <v>16</v>
       </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1005,7 +1014,10 @@
         <v>18</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>80</v>
+        <v>102</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,6 +1039,9 @@
       <c r="G12" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1044,6 +1059,9 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1055,6 +1073,9 @@
       <c r="F14" t="s">
         <v>20</v>
       </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1072,6 +1093,9 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1089,8 +1113,11 @@
       <c r="F16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -1106,39 +1133,45 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
       </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1149,13 +1182,19 @@
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1166,13 +1205,16 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -1183,44 +1225,50 @@
         <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
       </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" t="s">
-        <v>92</v>
-      </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1231,24 +1279,39 @@
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
       <c r="B26" t="s">
         <v>98</v>
       </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -1256,7 +1319,24 @@
         <v>99</v>
       </c>
       <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" t="s">
         <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1453,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TC1/dataEngine/DataEngine.xlsx
+++ b/TC1/dataEngine/DataEngine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="104">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -477,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,7 +512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,9 +842,6 @@
       <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -862,9 +859,6 @@
       <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -885,9 +879,6 @@
       <c r="G4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -908,9 +899,6 @@
       <c r="G5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -928,9 +916,6 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -942,9 +927,6 @@
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -956,9 +938,6 @@
       <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -976,9 +955,6 @@
       <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -993,9 +969,6 @@
       <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1016,9 +989,6 @@
       <c r="G11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1039,9 +1009,6 @@
       <c r="G12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1059,9 +1026,6 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1073,9 +1037,6 @@
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1093,9 +1054,6 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="H15" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1113,11 +1071,8 @@
       <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -1133,11 +1088,8 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -1153,11 +1105,8 @@
       <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -1167,11 +1116,8 @@
       <c r="F19" t="s">
         <v>20</v>
       </c>
-      <c r="H19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1190,11 +1136,8 @@
       <c r="G20" t="s">
         <v>96</v>
       </c>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1210,11 +1153,8 @@
       <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -1230,11 +1170,8 @@
       <c r="F22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -1250,11 +1187,8 @@
       <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1264,11 +1198,8 @@
       <c r="F24" t="s">
         <v>20</v>
       </c>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1287,11 +1218,8 @@
       <c r="G25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -1307,11 +1235,8 @@
       <c r="F26" t="s">
         <v>17</v>
       </c>
-      <c r="H26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -1321,11 +1246,8 @@
       <c r="F27" t="s">
         <v>20</v>
       </c>
-      <c r="H27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -1334,9 +1256,6 @@
       </c>
       <c r="F28" t="s">
         <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/TC1/dataEngine/DataEngine.xlsx
+++ b/TC1/dataEngine/DataEngine.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="104">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -955,6 +955,9 @@
       <c r="G9" t="s">
         <v>26</v>
       </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -969,6 +972,9 @@
       <c r="F10" t="s">
         <v>16</v>
       </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -989,6 +995,9 @@
       <c r="G11" s="5" t="s">
         <v>102</v>
       </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1009,6 +1018,9 @@
       <c r="G12" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1025,6 +1037,9 @@
       </c>
       <c r="F13" t="s">
         <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">

--- a/TC1/dataEngine/DataEngine.xlsx
+++ b/TC1/dataEngine/DataEngine.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="104">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1052,6 +1052,9 @@
       <c r="F14" t="s">
         <v>20</v>
       </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1069,6 +1072,9 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1086,8 +1092,11 @@
       <c r="F16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -1103,8 +1112,11 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -1120,8 +1132,11 @@
       <c r="F18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -1131,8 +1146,11 @@
       <c r="F19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1151,8 +1169,11 @@
       <c r="G20" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1168,8 +1189,11 @@
       <c r="F21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -1185,8 +1209,11 @@
       <c r="F22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -1202,8 +1229,11 @@
       <c r="F23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1213,8 +1243,11 @@
       <c r="F24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1233,8 +1266,11 @@
       <c r="G25" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -1250,8 +1286,11 @@
       <c r="F26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -1261,8 +1300,11 @@
       <c r="F27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -1271,6 +1313,9 @@
       </c>
       <c r="F28" t="s">
         <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
